--- a/Copy of Walchand College of Engineering - Sangli, India (30 Oct).xlsx
+++ b/Copy of Walchand College of Engineering - Sangli, India (30 Oct).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDG\cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FC6A79-535C-4AC1-9DEE-0EE01DE01C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D9243C-1E9F-40F9-BC4A-6A66A77DEA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1935,7 +1935,9 @@
   </sheetPr>
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F76" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1973,13 +1975,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>452</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -1988,13 +1990,13 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -2005,25 +2007,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -2034,13 +2039,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -2052,7 +2057,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -2063,39 +2071,45 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -2107,10 +2121,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -2121,13 +2135,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -2139,24 +2153,27 @@
         <v>15</v>
       </c>
       <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -2168,7 +2185,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -2179,13 +2199,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2197,10 +2217,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -2211,13 +2231,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2229,10 +2249,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2243,13 +2263,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -2261,27 +2281,24 @@
         <v>15</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>350</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>352</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -2293,27 +2310,24 @@
         <v>15</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -2325,7 +2339,10 @@
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -2336,13 +2353,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -2354,7 +2371,10 @@
         <v>15</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -2365,13 +2385,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -2383,21 +2403,27 @@
         <v>15</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -2409,7 +2435,10 @@
         <v>15</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -2420,13 +2449,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -2438,7 +2467,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -2446,13 +2478,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -2464,7 +2496,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -2475,13 +2510,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -2493,21 +2528,27 @@
         <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -2519,7 +2560,10 @@
         <v>15</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -2527,13 +2571,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -2545,10 +2589,10 @@
         <v>15</v>
       </c>
       <c r="G21" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -2559,13 +2603,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -2577,24 +2621,24 @@
         <v>15</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -2612,21 +2656,18 @@
         <v>16</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -2641,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -2649,13 +2690,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -2678,13 +2719,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -2696,10 +2737,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -2710,13 +2748,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -2736,13 +2774,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -2754,24 +2792,24 @@
         <v>15</v>
       </c>
       <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
+      <c r="J28" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -2783,10 +2821,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="1">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -2797,13 +2832,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -2815,10 +2850,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>4</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
         <v>1</v>
@@ -2829,13 +2861,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -2855,13 +2887,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -2884,13 +2916,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -2905,21 +2937,18 @@
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -2942,19 +2971,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>15</v>
@@ -2968,19 +2997,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
@@ -2994,13 +3023,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -3015,33 +3044,33 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G38" s="1">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -3052,28 +3081,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="1">
-        <v>4</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -3081,19 +3107,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -3107,13 +3133,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -3136,19 +3162,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>15</v>
@@ -3157,18 +3183,21 @@
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -3180,10 +3209,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="1">
-        <v>9</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -3194,13 +3220,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -3220,13 +3246,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -3246,19 +3272,19 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
@@ -3272,13 +3298,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -3298,19 +3324,19 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>15</v>
@@ -3319,18 +3345,21 @@
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -3350,19 +3379,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>15</v>
@@ -3376,13 +3405,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -3402,13 +3431,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -3428,19 +3457,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>15</v>
@@ -3454,19 +3483,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>15</v>
@@ -3480,19 +3509,19 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>15</v>
@@ -3501,21 +3530,18 @@
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -3527,10 +3553,7 @@
         <v>15</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -3538,19 +3561,19 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
@@ -3559,27 +3582,24 @@
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
@@ -3593,13 +3613,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -3619,19 +3639,19 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
@@ -3645,19 +3665,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
@@ -3666,24 +3686,27 @@
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
@@ -3692,18 +3715,21 @@
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -3723,19 +3749,19 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
@@ -3749,13 +3775,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -3775,19 +3801,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>15</v>
@@ -3801,19 +3827,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
@@ -3822,27 +3848,24 @@
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
@@ -3856,19 +3879,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>15</v>
@@ -3882,19 +3905,19 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>15</v>
@@ -3903,27 +3926,24 @@
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>1</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>15</v>
@@ -3937,13 +3957,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
@@ -3955,10 +3975,7 @@
         <v>15</v>
       </c>
       <c r="G72" s="1">
-        <v>5</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
@@ -3969,19 +3986,19 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
@@ -3995,13 +4012,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
@@ -4021,19 +4038,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>15</v>
@@ -4042,18 +4059,21 @@
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -4073,19 +4093,19 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
@@ -4099,13 +4119,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -4125,13 +4145,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -4151,13 +4171,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -4177,13 +4197,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -4203,13 +4223,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -4224,21 +4244,18 @@
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>1</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>13</v>
@@ -4258,13 +4275,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -4284,13 +4301,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -4310,19 +4327,19 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>15</v>
@@ -4331,24 +4348,27 @@
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>15</v>
@@ -4357,27 +4377,24 @@
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>1</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
@@ -4391,13 +4408,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -4417,28 +4434,25 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="1">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
@@ -4446,19 +4460,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>15</v>
@@ -4467,18 +4481,21 @@
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -4498,13 +4515,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -4524,19 +4541,19 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>15</v>
@@ -4545,21 +4562,18 @@
         <v>0</v>
       </c>
       <c r="I94" s="1">
-        <v>1</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -4579,19 +4593,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>15</v>
@@ -4605,19 +4619,19 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>15</v>
@@ -4626,24 +4640,27 @@
         <v>0</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>15</v>
@@ -4657,13 +4674,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -4683,19 +4700,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>15</v>
@@ -4709,19 +4726,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>15</v>
@@ -4735,19 +4752,19 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>15</v>
@@ -4756,21 +4773,18 @@
         <v>0</v>
       </c>
       <c r="I102" s="1">
-        <v>1</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -4790,13 +4804,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -4811,27 +4825,24 @@
         <v>0</v>
       </c>
       <c r="I104" s="1">
-        <v>1</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>15</v>
@@ -4848,13 +4859,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -4869,27 +4880,24 @@
         <v>0</v>
       </c>
       <c r="I106" s="1">
-        <v>1</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>15</v>
@@ -4898,18 +4906,21 @@
         <v>0</v>
       </c>
       <c r="I107" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -4921,10 +4932,7 @@
         <v>15</v>
       </c>
       <c r="G108" s="1">
-        <v>5</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="I108" s="1">
         <v>1</v>
@@ -4935,13 +4943,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -4956,24 +4964,27 @@
         <v>0</v>
       </c>
       <c r="I109" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>15</v>
@@ -4982,21 +4993,18 @@
         <v>0</v>
       </c>
       <c r="I110" s="1">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -5008,10 +5016,7 @@
         <v>15</v>
       </c>
       <c r="G111" s="1">
-        <v>4</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -5019,19 +5024,19 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>15</v>
@@ -5040,18 +5045,21 @@
         <v>0</v>
       </c>
       <c r="I112" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -5066,21 +5074,18 @@
         <v>0</v>
       </c>
       <c r="I113" s="1">
-        <v>1</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
@@ -5095,24 +5100,27 @@
         <v>0</v>
       </c>
       <c r="I114" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>15</v>
@@ -5126,19 +5134,19 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>15</v>
@@ -5152,19 +5160,19 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>15</v>
@@ -5178,13 +5186,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
@@ -5204,19 +5212,19 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>15</v>
@@ -5230,13 +5238,13 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
@@ -5256,13 +5264,13 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
@@ -5282,13 +5290,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>13</v>
@@ -5308,19 +5316,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>15</v>
@@ -5334,13 +5342,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>13</v>
@@ -5360,13 +5368,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>13</v>
@@ -5386,19 +5394,19 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>15</v>
@@ -5412,13 +5420,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -5438,19 +5446,19 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>15</v>
@@ -5459,21 +5467,18 @@
         <v>0</v>
       </c>
       <c r="I128" s="1">
-        <v>1</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
@@ -5496,13 +5501,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
@@ -5517,24 +5522,27 @@
         <v>0</v>
       </c>
       <c r="I130" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>15</v>
@@ -5548,19 +5556,19 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>15</v>
@@ -5574,19 +5582,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>15</v>
@@ -5600,19 +5608,19 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>15</v>
@@ -5621,21 +5629,18 @@
         <v>0</v>
       </c>
       <c r="I134" s="1">
-        <v>1</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>13</v>
@@ -5650,18 +5655,21 @@
         <v>0</v>
       </c>
       <c r="I135" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>13</v>
@@ -5681,13 +5689,13 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>13</v>
@@ -5702,27 +5710,24 @@
         <v>0</v>
       </c>
       <c r="I137" s="1">
-        <v>1</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>15</v>
@@ -5731,18 +5736,21 @@
         <v>0</v>
       </c>
       <c r="I138" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>13</v>
@@ -5762,13 +5770,13 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
@@ -5788,13 +5796,13 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>13</v>
@@ -5814,19 +5822,19 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>15</v>
@@ -5840,19 +5848,19 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>15</v>
@@ -5866,63 +5874,57 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0</v>
-      </c>
-      <c r="I144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="D145" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G145" s="1">
-        <v>19</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="I145" s="1">
-        <v>1</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>456</v>
       </c>
@@ -5948,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>459</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>462</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>465</v>
       </c>
@@ -6026,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>468</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>471</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>474</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>477</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>480</v>
       </c>
@@ -6156,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>483</v>
       </c>
@@ -6182,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>486</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>489</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>492</v>
       </c>
@@ -6260,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>495</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>498</v>
       </c>
@@ -6443,151 +6445,154 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J165">
+    <sortCondition descending="1" ref="G2:G165"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C32" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C37" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C19" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C20" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C38" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C21" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C39" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C22" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C9" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C10" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C40" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C44" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C45" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C46" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C3" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C11" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C4" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C54" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C55" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C56" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C57" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C58" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C59" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C60" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C61" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C23" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C63" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C66" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C67" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C68" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C69" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C70" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C71" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C72" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C73" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C74" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C75" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C76" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C7" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C77" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C78" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C79" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C80" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C81" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C82" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C83" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C84" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C85" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C86" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C87" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C88" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C89" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C90" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C91" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C92" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C93" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C24" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C94" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C95" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C96" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C97" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C98" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C99" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C100" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C101" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C102" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C103" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C104" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C105" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C106" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C107" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C108" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C109" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C110" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C8" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C12" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C2" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
     <hyperlink ref="C146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
     <hyperlink ref="C147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
     <hyperlink ref="C148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
